--- a/data-invoice.xlsx
+++ b/data-invoice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uncle Engineer\Desktop\Python for Excel and Google Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{021A04F3-4BD7-492B-9D3D-42FB00C59501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648268D0-1422-43C9-9FC3-ABC2D02D3D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{71916013-1565-4048-ABE5-98ACD6973541}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71916013-1565-4048-ABE5-98ACD6973541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>บริษัท</t>
   </si>
@@ -86,9 +86,6 @@
     <t>ราคา</t>
   </si>
   <si>
-    <t xml:space="preserve">223 พหลโยธิน สามเสนใน </t>
-  </si>
-  <si>
     <t>พญาไท กรุงเทพมหานคร 10401</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>UA103-990-2</t>
   </si>
   <si>
-    <t xml:space="preserve">224 พหลโยธิน สามเสนใน </t>
-  </si>
-  <si>
     <t>พญาไท กรุงเทพมหานคร 10402</t>
   </si>
   <si>
@@ -135,6 +129,18 @@
   </si>
   <si>
     <t>UA103-990-6</t>
+  </si>
+  <si>
+    <t>วันที่</t>
+  </si>
+  <si>
+    <t>10 ก.ค. 67</t>
+  </si>
+  <si>
+    <t>13 ก.ค. 67</t>
+  </si>
+  <si>
+    <t>15 ก.ค. 67</t>
   </si>
 </sst>
 </file>
@@ -513,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D45AABE-1E87-4822-84B8-213153BF3E03}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +538,7 @@
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +566,11 @@
       <c r="I1" t="s">
         <v>15</v>
       </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -589,16 +598,19 @@
       <c r="I2">
         <v>23.8</v>
       </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -607,7 +619,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -618,16 +630,19 @@
       <c r="I3">
         <v>23.8</v>
       </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -636,7 +651,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -647,25 +662,28 @@
       <c r="I4">
         <v>23.8</v>
       </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -676,25 +694,28 @@
       <c r="I5">
         <v>23.8</v>
       </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -705,25 +726,28 @@
       <c r="I6">
         <v>23.8</v>
       </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -733,6 +757,9 @@
       </c>
       <c r="I7">
         <v>23.8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
